--- a/30_fibrils.xlsx
+++ b/30_fibrils.xlsx
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,47 +428,43 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>5.6028999999999998E-8</v>
+        <v>5.5999999999999999E-8</v>
       </c>
       <c r="B2" s="2">
-        <v>5.6028999999999998E-8</v>
+        <v>1.31E-8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1.0641E-7</v>
+        <v>3.8299999999999999E-8</v>
       </c>
       <c r="B3" s="2">
-        <v>6.5701E-8</v>
+        <v>2.9899999999999998E-9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1.0216E-7</v>
+        <v>3.2999999999999998E-8</v>
       </c>
       <c r="B4" s="2">
-        <v>6.6399999999999999E-8</v>
+        <v>1.4999999999999999E-8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="1"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="1"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
